--- a/WaterworksParts.xlsx
+++ b/WaterworksParts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenminer/Dropbox (HMS)/Protocols/Box Building/Waterworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6581AE-9E2B-5B47-A925-63B3A61B1C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA1FFD-9270-BC48-8223-9B7E4A6FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="26000" windowHeight="15280" activeTab="5" xr2:uid="{6577D736-3399-4F0F-87CD-F0CF4BF32F87}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="26000" windowHeight="15280" activeTab="4" xr2:uid="{6577D736-3399-4F0F-87CD-F0CF4BF32F87}"/>
   </bookViews>
   <sheets>
     <sheet name="One-Time Purchases" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
   <si>
     <t>Part Name</t>
   </si>
@@ -845,12 +845,100 @@
   <si>
     <t>https://lulzbot.com/store/lulzbot-3d-printer-taz-workhorse-boxed-for-retail-na-kt-pr0051na?ref=KT-PR0051NA</t>
   </si>
+  <si>
+    <t xml:space="preserve">3D Printing Filament </t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Plastic Tray for Support (or use the cardboard that the fly food comes in)</t>
+  </si>
+  <si>
+    <t>iDesign Decorative Countertop Vanity Tray Organizer for Bathroom, Bedroom, Closet, Entryway, The Clarity Collection – 8" x 8" x 2", Clear</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/InterDesign-Clarity-Cosmetic-Organizer-Products/dp/B012SBZ1EI</t>
+  </si>
+  <si>
+    <t>Set of Small Screwdrivers</t>
+  </si>
+  <si>
+    <t>Ex. HATCHBOX Matte PLA 3D Printer Filament, Dimensional Accuracy +/- 0.03 mm, 1 kg Spool, 1.75 mm, Black</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ex. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F1111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11-Piece Precision Screwdriver Set - Magnetic Mini Screwdrivers for Eyeglasses, Watches, Computers, Laptops, Phones - Phillips, Slotted, Torx, Non-Slip Handle, Portable Storage Bag Included</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SEDY-Precision-Screwdriver-Magnetic-Screwdrivers/dp/B0B2NN9J6K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HATCHBOX-Printer-Filament-Dimensional-Accuracy/dp/B09G7BXN2J</t>
+  </si>
+  <si>
+    <t>Absorbent Pads</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ex. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F1111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amazon Basics Dog and Puppy Pee Pads with Leak-Proof Quick-Dry Design for Potty Training, Heavy Duty Absorbency, Regular Size, 24 x 23 Inches, Pack of 50, Blue &amp; White</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Basics-Absorbency-Leak-proof-Quick-dry/dp/B07CWD5PX5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B093KTHD3J/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Absorbent Cloths</t>
+  </si>
+  <si>
+    <t>Ex. Sophia's Secret Microfiber Cleaning Cloth - Multipurpose Reusable Kitchen Cloth - Highly Absorbent Lint Free Microfiber Dusting Cloth Rags for Car, House, Window - 8- 12x16, Pack of 8</t>
+  </si>
+  <si>
+    <t>Hot Glue Gun Kit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Assark-Sticks-School-Repairs-20W/dp/B09FYWQ44L</t>
+  </si>
+  <si>
+    <t>Assark Glue Gun, Mini Hot Glue Gun Kit with 30 Glue Sticks for School Crafts DIY Arts Quick Home Repairs, 20W (Blue)</t>
+  </si>
+  <si>
+    <t>Tacky Glue</t>
+  </si>
+  <si>
+    <t>All-Purpose Tacky Glue – Premium Adhesive for Crafts, Hobbies, and Household Repairs (1 Pack)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-Purpose-Tacky-Metal-Glue-Household/dp/B0CLW5NZTR?th=1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,15 +1006,33 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1111"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF032348"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1111"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -951,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1043,19 +1149,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,14 +1164,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2356,7 +2483,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="16">
-        <f>D13*E13</f>
+        <f t="shared" ref="F13:F20" si="2">D13*E13</f>
         <v>32</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -2383,7 +2510,7 @@
         <v>17.89</v>
       </c>
       <c r="F14" s="16">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>53.67</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2407,7 +2534,7 @@
         <v>8.81</v>
       </c>
       <c r="F15" s="16">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>17.62</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -2431,7 +2558,7 @@
         <v>11.06</v>
       </c>
       <c r="F16" s="16">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>22.12</v>
       </c>
       <c r="G16" s="25" t="s">
@@ -2455,7 +2582,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F17" s="16">
-        <f>D17*E17</f>
+        <f t="shared" si="2"/>
         <v>17.600000000000001</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -2479,7 +2606,7 @@
         <v>23.42</v>
       </c>
       <c r="F18" s="16">
-        <f>D18*E18</f>
+        <f t="shared" si="2"/>
         <v>23.42</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -2503,7 +2630,7 @@
         <v>6.94</v>
       </c>
       <c r="F19" s="16">
-        <f>D19*E19</f>
+        <f t="shared" si="2"/>
         <v>6.94</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -2530,7 +2657,7 @@
         <v>14.6</v>
       </c>
       <c r="F20" s="16">
-        <f>D20*E20</f>
+        <f t="shared" si="2"/>
         <v>14.6</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2713,17 +2840,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD9549-3FEE-4417-B104-6B0FCA898B3C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="41"/>
+    <col min="3" max="3" width="8.6640625" style="39"/>
     <col min="4" max="4" width="12.33203125" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="16"/>
     <col min="6" max="6" width="42.6640625" style="16" customWidth="1"/>
@@ -2736,7 +2863,7 @@
       <c r="B1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -2757,7 +2884,7 @@
       <c r="B2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="39">
         <v>2</v>
       </c>
       <c r="D2" s="16">
@@ -2777,7 +2904,7 @@
       <c r="B3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="16">
@@ -2797,7 +2924,7 @@
       <c r="B4" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
       <c r="D4" s="16">
@@ -2818,7 +2945,7 @@
       <c r="B5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>2</v>
       </c>
       <c r="D5" s="16">
@@ -2833,34 +2960,34 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
       <c r="D6" s="16">
         <v>43.99</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E16" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E22" si="0">C6*D6</f>
         <v>43.99</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="42" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>1</v>
       </c>
       <c r="D7" s="16">
@@ -2870,18 +2997,18 @@
         <f t="shared" si="0"/>
         <v>9.9499999999999993</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>1</v>
       </c>
       <c r="D8" s="16">
@@ -2891,18 +3018,18 @@
         <f t="shared" si="0"/>
         <v>23.81</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="42" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -2912,18 +3039,18 @@
         <f t="shared" si="0"/>
         <v>14.99</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <v>1</v>
       </c>
       <c r="D10" s="16">
@@ -2933,18 +3060,18 @@
         <f t="shared" si="0"/>
         <v>69.989999999999995</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="42" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>1</v>
       </c>
       <c r="D11" s="16">
@@ -2954,18 +3081,18 @@
         <f t="shared" si="0"/>
         <v>9.81</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="42" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="40">
         <v>2</v>
       </c>
       <c r="D12" s="16">
@@ -2975,18 +3102,18 @@
         <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="42" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="70" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>1</v>
       </c>
       <c r="D13" s="16">
@@ -2996,18 +3123,18 @@
         <f t="shared" si="0"/>
         <v>16.690000000000001</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="42" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="40">
         <v>1</v>
       </c>
       <c r="D14" s="16">
@@ -3017,18 +3144,18 @@
         <f t="shared" si="0"/>
         <v>6.12</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="42" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>1</v>
       </c>
       <c r="D15" s="16">
@@ -3038,7 +3165,7 @@
         <f t="shared" si="0"/>
         <v>5.84</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3049,7 +3176,7 @@
       <c r="B16" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>1</v>
       </c>
       <c r="D16" s="16">
@@ -3061,6 +3188,132 @@
       </c>
       <c r="F16" s="25" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>25.99</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>25.99</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>21.76</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>21.76</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>12.99</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>12.99</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8.99</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="39">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>8.99</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>8.99</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3080,6 +3333,7 @@
     <hyperlink ref="F14" r:id="rId13" xr:uid="{557DE548-BEB5-5540-897D-197E38322AFD}"/>
     <hyperlink ref="F15" r:id="rId14" xr:uid="{D9633372-877F-5944-8928-0BB91E810004}"/>
     <hyperlink ref="F10" r:id="rId15" xr:uid="{E48BBA16-7AF8-9747-89B7-C682984B520B}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{21B580DC-70F4-D047-9FD3-17FA62992A53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3087,11 +3341,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DFA353-4860-4D09-9D28-E9DD944F1FB9}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3227,13 +3481,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>213</v>
       </c>
       <c r="D6" s="22">
@@ -3243,41 +3497,66 @@
         <v>19.18</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="0">D6*E6</f>
+        <f t="shared" ref="F6:F8" si="0">D6*E6</f>
         <v>19.18</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43">
         <v>2950</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="43">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="33" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="84" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{7756AB98-BCFF-4ECA-8BD2-26850B3D740D}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{B5159A28-7322-7D49-A70C-4CA3A31A0E41}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{EF149609-89A0-6040-A78E-B5BEC6ED460C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WaterworksParts.xlsx
+++ b/WaterworksParts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenminer/Dropbox (HMS)/Protocols/Box Building/Waterworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA1FFD-9270-BC48-8223-9B7E4A6FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF69F4-257F-5648-A71F-8EFF24FDCF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="26000" windowHeight="15280" activeTab="4" xr2:uid="{6577D736-3399-4F0F-87CD-F0CF4BF32F87}"/>
+    <workbookView xWindow="4540" yWindow="3580" windowWidth="26000" windowHeight="15280" activeTab="5" xr2:uid="{6577D736-3399-4F0F-87CD-F0CF4BF32F87}"/>
   </bookViews>
   <sheets>
     <sheet name="One-Time Purchases" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
   <si>
     <t>Part Name</t>
   </si>
@@ -552,12 +552,6 @@
   </si>
   <si>
     <t>Y connectors for main tubing</t>
-  </si>
-  <si>
-    <t>Connector from stopcock to skinny tubing</t>
-  </si>
-  <si>
-    <t>Connector from skinny tubing to stopcock</t>
   </si>
   <si>
     <t>51525K216</t>
@@ -932,6 +926,75 @@
   </si>
   <si>
     <t>https://www.amazon.com/All-Purpose-Tacky-Metal-Glue-Household/dp/B0CLW5NZTR?th=1</t>
+  </si>
+  <si>
+    <t>Fast Orange Hand Cleaner</t>
+  </si>
+  <si>
+    <t>Ethernet net</t>
+  </si>
+  <si>
+    <t>Connector from skinny tubing to stopcock (OUT)</t>
+  </si>
+  <si>
+    <t>Connector from stopcock to skinny tubing (IN)</t>
+  </si>
+  <si>
+    <t>Connector between stopcock to main tubing (only used for OUT)</t>
+  </si>
+  <si>
+    <t>Need 12</t>
+  </si>
+  <si>
+    <t>Need 24 for IN + 12 for Out = 36</t>
+  </si>
+  <si>
+    <t>Multicolor washi tape</t>
+  </si>
+  <si>
+    <t>Ex. Permatex Fast Orange Fine Pumice Lotion Hand Cleaner</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Permatex-Orange-Pumice-Lotion-Cleaner/dp/B07H3CCLJ4</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Wooden blocks</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AmazonBasics-Matte-Keyboard-QWERTY-Layout/dp/B07WJ5D3H4</t>
+  </si>
+  <si>
+    <t>Ex. Amazon Basics Low-Profile Wired USB Keyboard with US Layout</t>
+  </si>
+  <si>
+    <t>Ex. Amazon Basics 3-Button Wired USB Computer Mouse, Single, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AmazonBasics-3-Button-Wired-Computer-1-Pack/dp/B005EJH6RW?th=1</t>
+  </si>
+  <si>
+    <t>Ex. Amazon Basics RJ45 Cat 6 Ethernet Patch Cable, 1Gpbs Transfer Speed, Gold-Plated Connectors, 3 Foot For PC, TV, tablet, router, printer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amazon-Basics-Ethernet-Gold-Plated-Connectors/dp/B00N2VISLW?th=1</t>
+  </si>
+  <si>
+    <t>Ex. Solid Hard Wood Blocks- 5 1/4 Inches Long by 2 Inches Wide - Pack of 6 by Sustainable Things</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Solid-Hard-Wood-Blocks-Inches/dp/B019M1W9YM</t>
+  </si>
+  <si>
+    <t>Ex. 30 Rolls Washi Masking Tape Set, 15mm Wide Colorful Rainbow, Decorative Writable Craft Tape for DIY Scrapbook Designs</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Masking-Colorful-Decorative-Tape%EF%BC%8CDecorative-Writable/dp/B07GBSFXC9</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1199,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B112171F-53D4-47D2-A337-0B39C01A8148}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1969,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3">
         <v>36</v>
@@ -2089,10 +2155,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2105,7 +2171,7 @@
         <v>9.52</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D21CEB7-9935-4817-9A90-F97106795298}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2149,7 +2215,7 @@
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2241,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2200,7 +2266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2222,10 +2288,10 @@
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -2250,7 +2316,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
@@ -2277,7 +2343,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -2304,12 +2370,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>158</v>
@@ -2325,13 +2391,13 @@
         <v>13.47</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -2358,12 +2424,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>152</v>
@@ -2379,18 +2445,21 @@
         <v>7.94</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="I9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>152</v>
@@ -2406,18 +2475,21 @@
         <v>8.92</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="I10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>152</v>
@@ -2436,37 +2508,43 @@
         <v>159</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="I11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="16">
         <v>5</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="I12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>140</v>
       </c>
@@ -2493,7 +2571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>143</v>
       </c>
@@ -2520,12 +2598,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="30">
         <v>2</v>
@@ -2538,18 +2616,18 @@
         <v>17.62</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16" s="30">
         <v>2</v>
@@ -2562,18 +2640,18 @@
         <v>22.12</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" s="30">
         <v>1</v>
@@ -2586,18 +2664,18 @@
         <v>17.600000000000001</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="30">
         <v>1</v>
@@ -2610,15 +2688,15 @@
         <v>23.42</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>152</v>
@@ -2634,21 +2712,21 @@
         <v>6.94</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="30">
         <v>1</v>
@@ -2661,10 +2739,16 @@
         <v>14.6</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="15">
+        <f>SUM(F2:F20)</f>
+        <v>421.26000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2840,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD9549-3FEE-4417-B104-6B0FCA898B3C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2961,10 +3045,10 @@
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="40">
         <v>1</v>
@@ -2973,19 +3057,19 @@
         <v>43.99</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E22" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E28" si="0">C6*D6</f>
         <v>43.99</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -2998,15 +3082,15 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" s="40">
         <v>1</v>
@@ -3019,15 +3103,15 @@
         <v>23.81</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -3040,15 +3124,15 @@
         <v>14.99</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="40">
         <v>1</v>
@@ -3061,15 +3145,15 @@
         <v>69.989999999999995</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
@@ -3082,15 +3166,15 @@
         <v>9.81</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="40">
         <v>2</v>
@@ -3103,15 +3187,15 @@
         <v>31.6</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
@@ -3124,15 +3208,15 @@
         <v>16.690000000000001</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C14" s="40">
         <v>1</v>
@@ -3145,15 +3229,15 @@
         <v>6.12</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="41">
         <v>1</v>
@@ -3166,15 +3250,15 @@
         <v>5.84</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" s="39">
         <v>1</v>
@@ -3187,15 +3271,15 @@
         <v>17.989999999999998</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="39">
         <v>1</v>
@@ -3208,15 +3292,15 @@
         <v>25.99</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>258</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>260</v>
       </c>
       <c r="C18" s="39">
         <v>1</v>
@@ -3229,15 +3313,15 @@
         <v>11.5</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="39">
         <v>1</v>
@@ -3250,15 +3334,15 @@
         <v>21.76</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C20" s="39">
         <v>1</v>
@@ -3271,15 +3355,15 @@
         <v>12.99</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>269</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>271</v>
       </c>
       <c r="C21" s="39">
         <v>1</v>
@@ -3292,15 +3376,15 @@
         <v>8.99</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C22" s="39">
         <v>1</v>
@@ -3313,7 +3397,139 @@
         <v>8.99</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="39">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="0"/>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="39">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <v>13.94</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="0"/>
+        <v>13.94</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>7.19</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="0"/>
+        <v>7.19</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>274</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="39">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3.97</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="0"/>
+        <v>3.97</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="39">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="0"/>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="15">
+        <f>SUM(E2:E28)</f>
+        <v>479.17000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -3334,6 +3550,11 @@
     <hyperlink ref="F15" r:id="rId14" xr:uid="{D9633372-877F-5944-8928-0BB91E810004}"/>
     <hyperlink ref="F10" r:id="rId15" xr:uid="{E48BBA16-7AF8-9747-89B7-C682984B520B}"/>
     <hyperlink ref="F20" r:id="rId16" xr:uid="{21B580DC-70F4-D047-9FD3-17FA62992A53}"/>
+    <hyperlink ref="F25" r:id="rId17" xr:uid="{6A894B90-4467-4745-9221-4B89A2E504AC}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{A08CBB7A-E995-E442-95A4-56467224B663}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{29450DEB-BFF3-4B4E-ACD3-CEAC0205A03C}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{ADC7C2E3-6232-4040-8398-ADD728267A2A}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{D1A48222-D389-C54C-B517-4FA6FF5C8C07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3341,11 +3562,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DFA353-4860-4D09-9D28-E9DD944F1FB9}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3458,13 +3679,13 @@
     </row>
     <row r="5" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -3477,18 +3698,18 @@
         <v>61.21</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>214</v>
-      </c>
       <c r="C6" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -3501,18 +3722,18 @@
         <v>19.18</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>249</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>251</v>
       </c>
       <c r="D7" s="44">
         <v>1</v>
@@ -3525,18 +3746,18 @@
         <v>2950</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>256</v>
       </c>
       <c r="D8" s="22">
         <v>1</v>
@@ -3549,7 +3770,13 @@
         <v>11.5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="52">
+        <f>SUM(F2:F8)</f>
+        <v>3730.94</v>
       </c>
     </row>
   </sheetData>
